--- a/商城对比/商城对比/todo.xlsx
+++ b/商城对比/商城对比/todo.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075E639F-3225-4199-BC73-4947C6B12638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="3037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11620" uniqueCount="3037">
   <si>
     <t>仓库名称</t>
   </si>
@@ -9127,14 +9131,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9161,7 +9172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9497,10 +9508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T581"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9562,7 +9577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9624,7 +9639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -9686,7 +9701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -9748,7 +9763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -9810,7 +9825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -9872,7 +9887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -9996,7 +10011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -10058,7 +10073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -10120,7 +10135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -10182,7 +10197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -10244,7 +10259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -10306,7 +10321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -10368,7 +10383,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -10430,7 +10445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -10492,7 +10507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -10554,7 +10569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -10616,7 +10631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -10678,7 +10693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>204</v>
       </c>
@@ -10740,7 +10755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -10802,7 +10817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -10864,7 +10879,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -10926,7 +10941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>234</v>
       </c>
@@ -10988,7 +11003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -11050,7 +11065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>253</v>
       </c>
@@ -11112,7 +11127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>260</v>
       </c>
@@ -11174,7 +11189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -11236,7 +11251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>271</v>
       </c>
@@ -11298,7 +11313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -11360,7 +11375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -11422,7 +11437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>299</v>
       </c>
@@ -11484,7 +11499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>305</v>
       </c>
@@ -11546,7 +11561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>311</v>
       </c>
@@ -11608,7 +11623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>317</v>
       </c>
@@ -11670,7 +11685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>322</v>
       </c>
@@ -11732,7 +11747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -11794,7 +11809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -11856,7 +11871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -11918,7 +11933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>349</v>
       </c>
@@ -11980,7 +11995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -12042,7 +12057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -12104,7 +12119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>370</v>
       </c>
@@ -12166,7 +12181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>374</v>
       </c>
@@ -12228,7 +12243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>380</v>
       </c>
@@ -12290,7 +12305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>387</v>
       </c>
@@ -12352,7 +12367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -12414,7 +12429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -12476,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>405</v>
       </c>
@@ -12538,7 +12553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>413</v>
       </c>
@@ -12600,7 +12615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>418</v>
       </c>
@@ -12662,7 +12677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>426</v>
       </c>
@@ -12724,7 +12739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>431</v>
       </c>
@@ -12786,7 +12801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>442</v>
       </c>
@@ -12848,7 +12863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>452</v>
       </c>
@@ -12910,7 +12925,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>469</v>
       </c>
@@ -12972,7 +12987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>473</v>
       </c>
@@ -13034,7 +13049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>482</v>
       </c>
@@ -13096,7 +13111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>490</v>
       </c>
@@ -13158,7 +13173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -13220,7 +13235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>503</v>
       </c>
@@ -13282,7 +13297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>510</v>
       </c>
@@ -13344,7 +13359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>515</v>
       </c>
@@ -13406,7 +13421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>519</v>
       </c>
@@ -13468,7 +13483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>525</v>
       </c>
@@ -13530,7 +13545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>533</v>
       </c>
@@ -13592,7 +13607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>537</v>
       </c>
@@ -13654,7 +13669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>545</v>
       </c>
@@ -13716,7 +13731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>552</v>
       </c>
@@ -13778,7 +13793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>555</v>
       </c>
@@ -13840,7 +13855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>561</v>
       </c>
@@ -13902,7 +13917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>565</v>
       </c>
@@ -13964,7 +13979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>571</v>
       </c>
@@ -14026,7 +14041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>575</v>
       </c>
@@ -14088,7 +14103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>580</v>
       </c>
@@ -14150,7 +14165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>587</v>
       </c>
@@ -14212,7 +14227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>592</v>
       </c>
@@ -14274,7 +14289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>600</v>
       </c>
@@ -14336,7 +14351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>605</v>
       </c>
@@ -14398,7 +14413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>611</v>
       </c>
@@ -14460,7 +14475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>617</v>
       </c>
@@ -14522,7 +14537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>629</v>
       </c>
@@ -14584,7 +14599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>633</v>
       </c>
@@ -14646,7 +14661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>640</v>
       </c>
@@ -14708,7 +14723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>643</v>
       </c>
@@ -14770,7 +14785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>649</v>
       </c>
@@ -14832,7 +14847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>655</v>
       </c>
@@ -14894,7 +14909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>662</v>
       </c>
@@ -14956,7 +14971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>669</v>
       </c>
@@ -15018,7 +15033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>673</v>
       </c>
@@ -15080,7 +15095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>681</v>
       </c>
@@ -15142,7 +15157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>688</v>
       </c>
@@ -15204,7 +15219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>693</v>
       </c>
@@ -15266,7 +15281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>698</v>
       </c>
@@ -15328,7 +15343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>706</v>
       </c>
@@ -15390,7 +15405,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>718</v>
       </c>
@@ -15452,7 +15467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>725</v>
       </c>
@@ -15514,7 +15529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>731</v>
       </c>
@@ -15576,7 +15591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>735</v>
       </c>
@@ -15638,7 +15653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>742</v>
       </c>
@@ -15700,7 +15715,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>751</v>
       </c>
@@ -15762,7 +15777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>757</v>
       </c>
@@ -15824,7 +15839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>768</v>
       </c>
@@ -15886,7 +15901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>776</v>
       </c>
@@ -15948,7 +15963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>780</v>
       </c>
@@ -16010,7 +16025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>783</v>
       </c>
@@ -16072,7 +16087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>790</v>
       </c>
@@ -16134,7 +16149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>794</v>
       </c>
@@ -16196,7 +16211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>798</v>
       </c>
@@ -16258,7 +16273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>803</v>
       </c>
@@ -16320,7 +16335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>807</v>
       </c>
@@ -16382,7 +16397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>812</v>
       </c>
@@ -16444,7 +16459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>816</v>
       </c>
@@ -16506,7 +16521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>823</v>
       </c>
@@ -16568,7 +16583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>829</v>
       </c>
@@ -16630,7 +16645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>834</v>
       </c>
@@ -16692,7 +16707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>840</v>
       </c>
@@ -16754,7 +16769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>844</v>
       </c>
@@ -16816,7 +16831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>848</v>
       </c>
@@ -16878,7 +16893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>852</v>
       </c>
@@ -16940,7 +16955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>857</v>
       </c>
@@ -17002,7 +17017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>863</v>
       </c>
@@ -17064,7 +17079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>870</v>
       </c>
@@ -17126,7 +17141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>876</v>
       </c>
@@ -17188,7 +17203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>883</v>
       </c>
@@ -17250,7 +17265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>888</v>
       </c>
@@ -17312,7 +17327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>894</v>
       </c>
@@ -17374,7 +17389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>900</v>
       </c>
@@ -17436,7 +17451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>903</v>
       </c>
@@ -17498,7 +17513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>907</v>
       </c>
@@ -17560,7 +17575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>910</v>
       </c>
@@ -17622,7 +17637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>915</v>
       </c>
@@ -17684,7 +17699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>918</v>
       </c>
@@ -17746,7 +17761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>923</v>
       </c>
@@ -17808,7 +17823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>927</v>
       </c>
@@ -17870,7 +17885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>932</v>
       </c>
@@ -17932,7 +17947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>937</v>
       </c>
@@ -17994,7 +18009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>945</v>
       </c>
@@ -18056,7 +18071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>952</v>
       </c>
@@ -18118,7 +18133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>956</v>
       </c>
@@ -18180,7 +18195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>965</v>
       </c>
@@ -18242,7 +18257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>968</v>
       </c>
@@ -18304,7 +18319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>973</v>
       </c>
@@ -18366,7 +18381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>979</v>
       </c>
@@ -18428,7 +18443,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>987</v>
       </c>
@@ -18490,7 +18505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>993</v>
       </c>
@@ -18552,7 +18567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>998</v>
       </c>
@@ -18614,7 +18629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>1002</v>
       </c>
@@ -18676,7 +18691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1005</v>
       </c>
@@ -18738,7 +18753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>1011</v>
       </c>
@@ -18800,7 +18815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>1015</v>
       </c>
@@ -18862,7 +18877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>1022</v>
       </c>
@@ -18924,7 +18939,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>1029</v>
       </c>
@@ -18986,7 +19001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>1034</v>
       </c>
@@ -19048,7 +19063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>1039</v>
       </c>
@@ -19110,7 +19125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>1044</v>
       </c>
@@ -19172,7 +19187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>1048</v>
       </c>
@@ -19234,7 +19249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>1061</v>
       </c>
@@ -19296,7 +19311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>1066</v>
       </c>
@@ -19358,7 +19373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>1070</v>
       </c>
@@ -19420,7 +19435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>1076</v>
       </c>
@@ -19482,7 +19497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>1081</v>
       </c>
@@ -19544,7 +19559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>1084</v>
       </c>
@@ -19606,7 +19621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>1091</v>
       </c>
@@ -19668,7 +19683,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>1101</v>
       </c>
@@ -19730,7 +19745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>1107</v>
       </c>
@@ -19792,7 +19807,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>1117</v>
       </c>
@@ -19854,7 +19869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>1124</v>
       </c>
@@ -19916,7 +19931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>1129</v>
       </c>
@@ -19978,7 +19993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1132</v>
       </c>
@@ -20040,7 +20055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1138</v>
       </c>
@@ -20102,7 +20117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>1145</v>
       </c>
@@ -20164,7 +20179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1150</v>
       </c>
@@ -20226,7 +20241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1155</v>
       </c>
@@ -20288,7 +20303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1158</v>
       </c>
@@ -20350,7 +20365,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1162</v>
       </c>
@@ -20412,7 +20427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1166</v>
       </c>
@@ -20474,7 +20489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1169</v>
       </c>
@@ -20536,7 +20551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1173</v>
       </c>
@@ -20598,7 +20613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1179</v>
       </c>
@@ -20660,7 +20675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1183</v>
       </c>
@@ -20722,7 +20737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1189</v>
       </c>
@@ -20784,7 +20799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1192</v>
       </c>
@@ -20846,7 +20861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1198</v>
       </c>
@@ -20908,7 +20923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1201</v>
       </c>
@@ -20970,7 +20985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1205</v>
       </c>
@@ -21032,7 +21047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1210</v>
       </c>
@@ -21094,7 +21109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1213</v>
       </c>
@@ -21156,7 +21171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1216</v>
       </c>
@@ -21218,7 +21233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1220</v>
       </c>
@@ -21280,7 +21295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1226</v>
       </c>
@@ -21342,7 +21357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1231</v>
       </c>
@@ -21404,7 +21419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1241</v>
       </c>
@@ -21466,7 +21481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1245</v>
       </c>
@@ -21528,7 +21543,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1256</v>
       </c>
@@ -21590,7 +21605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1259</v>
       </c>
@@ -21652,7 +21667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1263</v>
       </c>
@@ -21714,7 +21729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1266</v>
       </c>
@@ -21776,7 +21791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1270</v>
       </c>
@@ -21838,7 +21853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1273</v>
       </c>
@@ -21900,7 +21915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1277</v>
       </c>
@@ -21962,7 +21977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1280</v>
       </c>
@@ -22024,7 +22039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1283</v>
       </c>
@@ -22086,7 +22101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1286</v>
       </c>
@@ -22148,7 +22163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1289</v>
       </c>
@@ -22210,7 +22225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1295</v>
       </c>
@@ -22272,7 +22287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1301</v>
       </c>
@@ -22334,7 +22349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1305</v>
       </c>
@@ -22396,7 +22411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1310</v>
       </c>
@@ -22458,7 +22473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1316</v>
       </c>
@@ -22520,7 +22535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1318</v>
       </c>
@@ -22582,7 +22597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1322</v>
       </c>
@@ -22644,7 +22659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1328</v>
       </c>
@@ -22706,7 +22721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1333</v>
       </c>
@@ -22768,7 +22783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1336</v>
       </c>
@@ -22830,7 +22845,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1352</v>
       </c>
@@ -22892,7 +22907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1360</v>
       </c>
@@ -22954,7 +22969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1364</v>
       </c>
@@ -23016,7 +23031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1371</v>
       </c>
@@ -23078,7 +23093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1374</v>
       </c>
@@ -23140,7 +23155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1379</v>
       </c>
@@ -23202,7 +23217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1383</v>
       </c>
@@ -23264,7 +23279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1390</v>
       </c>
@@ -23326,7 +23341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1393</v>
       </c>
@@ -23388,7 +23403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1398</v>
       </c>
@@ -23450,7 +23465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1402</v>
       </c>
@@ -23512,7 +23527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1409</v>
       </c>
@@ -23574,7 +23589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1411</v>
       </c>
@@ -23636,7 +23651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1416</v>
       </c>
@@ -23698,7 +23713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1421</v>
       </c>
@@ -23760,7 +23775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1424</v>
       </c>
@@ -23822,7 +23837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1428</v>
       </c>
@@ -23884,7 +23899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1433</v>
       </c>
@@ -23946,7 +23961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1436</v>
       </c>
@@ -24008,7 +24023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1441</v>
       </c>
@@ -24070,7 +24085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1446</v>
       </c>
@@ -24132,7 +24147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1451</v>
       </c>
@@ -24194,7 +24209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1457</v>
       </c>
@@ -24256,7 +24271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1464</v>
       </c>
@@ -24318,7 +24333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1468</v>
       </c>
@@ -24380,7 +24395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1475</v>
       </c>
@@ -24442,7 +24457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1478</v>
       </c>
@@ -24504,7 +24519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1482</v>
       </c>
@@ -24566,7 +24581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1486</v>
       </c>
@@ -24628,7 +24643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1492</v>
       </c>
@@ -24690,7 +24705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1495</v>
       </c>
@@ -24752,7 +24767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1500</v>
       </c>
@@ -24814,7 +24829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1503</v>
       </c>
@@ -24876,7 +24891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1506</v>
       </c>
@@ -24938,7 +24953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1517</v>
       </c>
@@ -25000,7 +25015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1522</v>
       </c>
@@ -25062,7 +25077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1528</v>
       </c>
@@ -25124,7 +25139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1537</v>
       </c>
@@ -25186,7 +25201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1542</v>
       </c>
@@ -25248,7 +25263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1545</v>
       </c>
@@ -25310,7 +25325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1550</v>
       </c>
@@ -25372,7 +25387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1556</v>
       </c>
@@ -25434,7 +25449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1561</v>
       </c>
@@ -25496,7 +25511,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1570</v>
       </c>
@@ -25558,7 +25573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1575</v>
       </c>
@@ -25620,7 +25635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1578</v>
       </c>
@@ -25682,7 +25697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1582</v>
       </c>
@@ -25744,7 +25759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1585</v>
       </c>
@@ -25806,7 +25821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1589</v>
       </c>
@@ -25868,7 +25883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1593</v>
       </c>
@@ -25930,7 +25945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1598</v>
       </c>
@@ -25992,7 +26007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1603</v>
       </c>
@@ -26054,7 +26069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1610</v>
       </c>
@@ -26116,7 +26131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1619</v>
       </c>
@@ -26178,7 +26193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1622</v>
       </c>
@@ -26240,7 +26255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1630</v>
       </c>
@@ -26302,7 +26317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1634</v>
       </c>
@@ -26364,7 +26379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1640</v>
       </c>
@@ -26426,7 +26441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1643</v>
       </c>
@@ -26488,7 +26503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1646</v>
       </c>
@@ -26550,7 +26565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1655</v>
       </c>
@@ -26612,7 +26627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1659</v>
       </c>
@@ -26674,7 +26689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1663</v>
       </c>
@@ -26736,7 +26751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1667</v>
       </c>
@@ -26798,7 +26813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1673</v>
       </c>
@@ -26860,7 +26875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1679</v>
       </c>
@@ -26922,7 +26937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1682</v>
       </c>
@@ -26984,7 +26999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1686</v>
       </c>
@@ -27046,7 +27061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1690</v>
       </c>
@@ -27108,7 +27123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1694</v>
       </c>
@@ -27170,7 +27185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1697</v>
       </c>
@@ -27232,7 +27247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1701</v>
       </c>
@@ -27294,7 +27309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1713</v>
       </c>
@@ -27356,7 +27371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1716</v>
       </c>
@@ -27418,7 +27433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1721</v>
       </c>
@@ -27480,7 +27495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1724</v>
       </c>
@@ -27542,7 +27557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1727</v>
       </c>
@@ -27604,7 +27619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1733</v>
       </c>
@@ -27666,7 +27681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1736</v>
       </c>
@@ -27728,7 +27743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1740</v>
       </c>
@@ -27790,7 +27805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1750</v>
       </c>
@@ -27852,7 +27867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1753</v>
       </c>
@@ -27914,7 +27929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1758</v>
       </c>
@@ -27976,7 +27991,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1766</v>
       </c>
@@ -28038,7 +28053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1769</v>
       </c>
@@ -28100,7 +28115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1773</v>
       </c>
@@ -28162,7 +28177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1777</v>
       </c>
@@ -28224,7 +28239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1780</v>
       </c>
@@ -28286,7 +28301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1783</v>
       </c>
@@ -28348,7 +28363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1787</v>
       </c>
@@ -28410,7 +28425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>1791</v>
       </c>
@@ -28472,7 +28487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>1795</v>
       </c>
@@ -28534,7 +28549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>1798</v>
       </c>
@@ -28596,7 +28611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>1801</v>
       </c>
@@ -28658,7 +28673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>1804</v>
       </c>
@@ -28720,7 +28735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>1810</v>
       </c>
@@ -28782,7 +28797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>1814</v>
       </c>
@@ -28844,7 +28859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>1819</v>
       </c>
@@ -28906,7 +28921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>1825</v>
       </c>
@@ -28968,7 +28983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>1828</v>
       </c>
@@ -29030,7 +29045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>1834</v>
       </c>
@@ -29092,7 +29107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>1837</v>
       </c>
@@ -29154,7 +29169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>1840</v>
       </c>
@@ -29216,7 +29231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>1843</v>
       </c>
@@ -29278,7 +29293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>1847</v>
       </c>
@@ -29340,7 +29355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>1852</v>
       </c>
@@ -29402,7 +29417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>1855</v>
       </c>
@@ -29464,7 +29479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>1858</v>
       </c>
@@ -29526,7 +29541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1863</v>
       </c>
@@ -29588,7 +29603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1867</v>
       </c>
@@ -29650,7 +29665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1872</v>
       </c>
@@ -29712,7 +29727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1875</v>
       </c>
@@ -29774,7 +29789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1881</v>
       </c>
@@ -29836,7 +29851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1886</v>
       </c>
@@ -29898,7 +29913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1889</v>
       </c>
@@ -29960,7 +29975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1893</v>
       </c>
@@ -30022,7 +30037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1899</v>
       </c>
@@ -30084,7 +30099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1905</v>
       </c>
@@ -30146,7 +30161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1910</v>
       </c>
@@ -30208,7 +30223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1913</v>
       </c>
@@ -30270,7 +30285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1916</v>
       </c>
@@ -30332,7 +30347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1922</v>
       </c>
@@ -30394,7 +30409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1926</v>
       </c>
@@ -30456,7 +30471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1929</v>
       </c>
@@ -30518,7 +30533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1935</v>
       </c>
@@ -30580,7 +30595,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1941</v>
       </c>
@@ -30642,7 +30657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1945</v>
       </c>
@@ -30704,7 +30719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1949</v>
       </c>
@@ -30766,7 +30781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1954</v>
       </c>
@@ -30828,7 +30843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1957</v>
       </c>
@@ -30890,7 +30905,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1965</v>
       </c>
@@ -30952,7 +30967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1973</v>
       </c>
@@ -31014,7 +31029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1978</v>
       </c>
@@ -31076,7 +31091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1981</v>
       </c>
@@ -31138,7 +31153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1986</v>
       </c>
@@ -31200,7 +31215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1992</v>
       </c>
@@ -31262,7 +31277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1996</v>
       </c>
@@ -31324,7 +31339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1999</v>
       </c>
@@ -31386,7 +31401,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>2006</v>
       </c>
@@ -31448,7 +31463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>2011</v>
       </c>
@@ -31510,7 +31525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>2014</v>
       </c>
@@ -31572,7 +31587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>2019</v>
       </c>
@@ -31634,7 +31649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>2023</v>
       </c>
@@ -31696,7 +31711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>2027</v>
       </c>
@@ -31758,7 +31773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>2030</v>
       </c>
@@ -31820,7 +31835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>2039</v>
       </c>
@@ -31882,7 +31897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>2046</v>
       </c>
@@ -31944,7 +31959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>2051</v>
       </c>
@@ -32006,7 +32021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>2056</v>
       </c>
@@ -32068,7 +32083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>2062</v>
       </c>
@@ -32130,7 +32145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>2068</v>
       </c>
@@ -32192,7 +32207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>2071</v>
       </c>
@@ -32254,7 +32269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>2075</v>
       </c>
@@ -32316,7 +32331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>2078</v>
       </c>
@@ -32378,7 +32393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>2083</v>
       </c>
@@ -32440,7 +32455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>2086</v>
       </c>
@@ -32502,7 +32517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>2089</v>
       </c>
@@ -32564,7 +32579,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>2097</v>
       </c>
@@ -32626,7 +32641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>2102</v>
       </c>
@@ -32688,7 +32703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>2105</v>
       </c>
@@ -32750,7 +32765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>2108</v>
       </c>
@@ -32812,7 +32827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>2114</v>
       </c>
@@ -32874,7 +32889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>2117</v>
       </c>
@@ -32936,7 +32951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>2126</v>
       </c>
@@ -32998,7 +33013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>2129</v>
       </c>
@@ -33060,7 +33075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>2132</v>
       </c>
@@ -33122,7 +33137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>2136</v>
       </c>
@@ -33184,7 +33199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>2139</v>
       </c>
@@ -33246,7 +33261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>2143</v>
       </c>
@@ -33308,7 +33323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>2146</v>
       </c>
@@ -33370,7 +33385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>2149</v>
       </c>
@@ -33432,7 +33447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>2152</v>
       </c>
@@ -33494,7 +33509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>2158</v>
       </c>
@@ -33556,7 +33571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>2163</v>
       </c>
@@ -33618,7 +33633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>2167</v>
       </c>
@@ -33680,7 +33695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>2171</v>
       </c>
@@ -33742,7 +33757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>2174</v>
       </c>
@@ -33804,7 +33819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>2182</v>
       </c>
@@ -33866,7 +33881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>2188</v>
       </c>
@@ -33928,7 +33943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>2194</v>
       </c>
@@ -33990,7 +34005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>2199</v>
       </c>
@@ -34052,7 +34067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>2202</v>
       </c>
@@ -34114,7 +34129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>2205</v>
       </c>
@@ -34176,7 +34191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>2210</v>
       </c>
@@ -34238,7 +34253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>2216</v>
       </c>
@@ -34300,7 +34315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>2220</v>
       </c>
@@ -34362,7 +34377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>2224</v>
       </c>
@@ -34424,7 +34439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>2227</v>
       </c>
@@ -34486,7 +34501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>2232</v>
       </c>
@@ -34548,7 +34563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>2236</v>
       </c>
@@ -34610,7 +34625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>2240</v>
       </c>
@@ -34672,7 +34687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>2242</v>
       </c>
@@ -34734,7 +34749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>2245</v>
       </c>
@@ -34796,7 +34811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>2248</v>
       </c>
@@ -34858,7 +34873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>2252</v>
       </c>
@@ -34920,7 +34935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>2255</v>
       </c>
@@ -34982,7 +34997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>2258</v>
       </c>
@@ -35044,7 +35059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>2262</v>
       </c>
@@ -35106,7 +35121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>2266</v>
       </c>
@@ -35168,7 +35183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>2270</v>
       </c>
@@ -35230,7 +35245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>2274</v>
       </c>
@@ -35292,7 +35307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>2277</v>
       </c>
@@ -35354,7 +35369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>2280</v>
       </c>
@@ -35416,7 +35431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>2285</v>
       </c>
@@ -35478,7 +35493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>2288</v>
       </c>
@@ -35540,7 +35555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>2294</v>
       </c>
@@ -35602,7 +35617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>2300</v>
       </c>
@@ -35664,7 +35679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>2303</v>
       </c>
@@ -35726,7 +35741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>2310</v>
       </c>
@@ -35788,7 +35803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>2313</v>
       </c>
@@ -35850,7 +35865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>2319</v>
       </c>
@@ -35912,7 +35927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>2331</v>
       </c>
@@ -35974,7 +35989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>2335</v>
       </c>
@@ -36036,7 +36051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>2337</v>
       </c>
@@ -36098,7 +36113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>2340</v>
       </c>
@@ -36160,7 +36175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>2343</v>
       </c>
@@ -36222,7 +36237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>2349</v>
       </c>
@@ -36284,7 +36299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>2353</v>
       </c>
@@ -36346,7 +36361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>2360</v>
       </c>
@@ -36408,7 +36423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>2363</v>
       </c>
@@ -36470,7 +36485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>2367</v>
       </c>
@@ -36532,7 +36547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>2370</v>
       </c>
@@ -36594,7 +36609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>2373</v>
       </c>
@@ -36656,7 +36671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>2377</v>
       </c>
@@ -36718,7 +36733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>2380</v>
       </c>
@@ -36780,7 +36795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>2384</v>
       </c>
@@ -36842,7 +36857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>2389</v>
       </c>
@@ -36904,7 +36919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>2394</v>
       </c>
@@ -36966,7 +36981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>2397</v>
       </c>
@@ -37028,7 +37043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>2401</v>
       </c>
@@ -37090,7 +37105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>2405</v>
       </c>
@@ -37152,7 +37167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>2410</v>
       </c>
@@ -37214,7 +37229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>2416</v>
       </c>
@@ -37276,7 +37291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>2421</v>
       </c>
@@ -37338,7 +37353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>2426</v>
       </c>
@@ -37400,7 +37415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>2429</v>
       </c>
@@ -37462,7 +37477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>2433</v>
       </c>
@@ -37524,7 +37539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>2437</v>
       </c>
@@ -37586,7 +37601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>2441</v>
       </c>
@@ -37648,7 +37663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>2447</v>
       </c>
@@ -37710,7 +37725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>2452</v>
       </c>
@@ -37772,7 +37787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>2459</v>
       </c>
@@ -37834,7 +37849,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>2471</v>
       </c>
@@ -37896,7 +37911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>2474</v>
       </c>
@@ -37958,7 +37973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>2483</v>
       </c>
@@ -38020,7 +38035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>2487</v>
       </c>
@@ -38082,7 +38097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>2492</v>
       </c>
@@ -38144,7 +38159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>2501</v>
       </c>
@@ -38206,7 +38221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>2505</v>
       </c>
@@ -38268,7 +38283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>2509</v>
       </c>
@@ -38330,7 +38345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>2514</v>
       </c>
@@ -38392,7 +38407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>2518</v>
       </c>
@@ -38454,7 +38469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>2522</v>
       </c>
@@ -38516,7 +38531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>2529</v>
       </c>
@@ -38578,7 +38593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>2535</v>
       </c>
@@ -38640,7 +38655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>2538</v>
       </c>
@@ -38702,7 +38717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>2541</v>
       </c>
@@ -38764,7 +38779,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>2553</v>
       </c>
@@ -38826,7 +38841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>2557</v>
       </c>
@@ -38888,7 +38903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>2562</v>
       </c>
@@ -38950,7 +38965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>2565</v>
       </c>
@@ -39012,7 +39027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>2571</v>
       </c>
@@ -39074,7 +39089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>2575</v>
       </c>
@@ -39136,7 +39151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>2583</v>
       </c>
@@ -39198,7 +39213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>2588</v>
       </c>
@@ -39260,7 +39275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>2592</v>
       </c>
@@ -39322,7 +39337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>2595</v>
       </c>
@@ -39384,7 +39399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>2598</v>
       </c>
@@ -39446,7 +39461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>2602</v>
       </c>
@@ -39508,7 +39523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>2608</v>
       </c>
@@ -39570,7 +39585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>2611</v>
       </c>
@@ -39632,7 +39647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>2614</v>
       </c>
@@ -39694,7 +39709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>2617</v>
       </c>
@@ -39756,7 +39771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>2621</v>
       </c>
@@ -39818,7 +39833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>2625</v>
       </c>
@@ -39880,7 +39895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>2630</v>
       </c>
@@ -39942,7 +39957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>2634</v>
       </c>
@@ -40004,7 +40019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>2637</v>
       </c>
@@ -40066,7 +40081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>2641</v>
       </c>
@@ -40128,7 +40143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>2647</v>
       </c>
@@ -40190,7 +40205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>2659</v>
       </c>
@@ -40252,7 +40267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>2665</v>
       </c>
@@ -40314,7 +40329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>2674</v>
       </c>
@@ -40376,7 +40391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>2677</v>
       </c>
@@ -40438,7 +40453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>2681</v>
       </c>
@@ -40500,7 +40515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>2685</v>
       </c>
@@ -40562,7 +40577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>2688</v>
       </c>
@@ -40624,7 +40639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>2692</v>
       </c>
@@ -40686,7 +40701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>2695</v>
       </c>
@@ -40748,7 +40763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>2701</v>
       </c>
@@ -40810,7 +40825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>2704</v>
       </c>
@@ -40872,7 +40887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>2708</v>
       </c>
@@ -40934,7 +40949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>2712</v>
       </c>
@@ -40996,7 +41011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>2716</v>
       </c>
@@ -41058,7 +41073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>2719</v>
       </c>
@@ -41120,7 +41135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>2725</v>
       </c>
@@ -41182,7 +41197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>2729</v>
       </c>
@@ -41244,7 +41259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>2732</v>
       </c>
@@ -41306,7 +41321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>2736</v>
       </c>
@@ -41368,7 +41383,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>2748</v>
       </c>
@@ -41430,7 +41445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>2751</v>
       </c>
@@ -41492,7 +41507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>2757</v>
       </c>
@@ -41554,7 +41569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>2762</v>
       </c>
@@ -41616,7 +41631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>2768</v>
       </c>
@@ -41678,7 +41693,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>2774</v>
       </c>
@@ -41740,7 +41755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>2778</v>
       </c>
@@ -41802,7 +41817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>2781</v>
       </c>
@@ -41864,7 +41879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>2784</v>
       </c>
@@ -41926,7 +41941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>2790</v>
       </c>
@@ -41988,7 +42003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>2793</v>
       </c>
@@ -42050,7 +42065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>2796</v>
       </c>
@@ -42112,7 +42127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>2800</v>
       </c>
@@ -42174,7 +42189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>2804</v>
       </c>
@@ -42236,7 +42251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>2808</v>
       </c>
@@ -42298,7 +42313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>2812</v>
       </c>
@@ -42360,7 +42375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>2815</v>
       </c>
@@ -42422,7 +42437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>2819</v>
       </c>
@@ -42484,7 +42499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>2825</v>
       </c>
@@ -42546,7 +42561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>2828</v>
       </c>
@@ -42608,7 +42623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>2831</v>
       </c>
@@ -42670,7 +42685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>2839</v>
       </c>
@@ -42732,7 +42747,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>2846</v>
       </c>
@@ -42794,7 +42809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>2849</v>
       </c>
@@ -42856,7 +42871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>2852</v>
       </c>
@@ -42918,7 +42933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>2856</v>
       </c>
@@ -42980,7 +42995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>2859</v>
       </c>
@@ -43042,7 +43057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>2864</v>
       </c>
@@ -43104,7 +43119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>2867</v>
       </c>
@@ -43166,7 +43181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>2871</v>
       </c>
@@ -43228,7 +43243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>2875</v>
       </c>
@@ -43290,7 +43305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>2878</v>
       </c>
@@ -43352,7 +43367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>2884</v>
       </c>
@@ -43414,7 +43429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>2888</v>
       </c>
@@ -43476,7 +43491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>2891</v>
       </c>
@@ -43538,7 +43553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>2895</v>
       </c>
@@ -43600,7 +43615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>2898</v>
       </c>
@@ -43662,7 +43677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>2901</v>
       </c>
@@ -43724,7 +43739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>2904</v>
       </c>
@@ -43786,7 +43801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>2908</v>
       </c>
@@ -43848,7 +43863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>2912</v>
       </c>
@@ -43910,7 +43925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>2919</v>
       </c>
@@ -43972,7 +43987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>2922</v>
       </c>
@@ -44034,7 +44049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>2926</v>
       </c>
@@ -44096,7 +44111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>2930</v>
       </c>
@@ -44158,7 +44173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>2935</v>
       </c>
@@ -44220,7 +44235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>2939</v>
       </c>
@@ -44282,7 +44297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>2944</v>
       </c>
@@ -44344,7 +44359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>2947</v>
       </c>
@@ -44406,7 +44421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>2950</v>
       </c>
@@ -44468,7 +44483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>2955</v>
       </c>
@@ -44530,7 +44545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>2958</v>
       </c>
@@ -44592,7 +44607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>2962</v>
       </c>
@@ -44654,7 +44669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>2965</v>
       </c>
@@ -44716,7 +44731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>2973</v>
       </c>
@@ -44778,7 +44793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>2981</v>
       </c>
@@ -44840,7 +44855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>2987</v>
       </c>
@@ -44902,7 +44917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>2990</v>
       </c>
@@ -44964,7 +44979,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>2999</v>
       </c>
@@ -45026,7 +45041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>3001</v>
       </c>
@@ -45088,7 +45103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>3005</v>
       </c>
@@ -45150,7 +45165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>3011</v>
       </c>
@@ -45212,7 +45227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>3015</v>
       </c>
@@ -45274,7 +45289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>3019</v>
       </c>
@@ -45336,7 +45351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>3022</v>
       </c>
@@ -45398,7 +45413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>3028</v>
       </c>
@@ -45460,7 +45475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>3033</v>
       </c>
@@ -45523,7 +45538,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>